--- a/Input_Filelist.xlsx
+++ b/Input_Filelist.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UbuntuHome\AEMParameters\FittingAllTool-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\UbuntuHome\AEMParameters\flatpyramid_OH3H2O\FittingAllTool-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44FC210-BDB8-4BE2-8346-9F197E075DF3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C552A-D4F3-4447-9488-3C7986AB84CB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Ebd1_Hartree</t>
   </si>
@@ -54,9 +54,6 @@
     <t>../New_OH-OH/OH-OH_500.log</t>
   </si>
   <si>
-    <t>But_OH</t>
-  </si>
-  <si>
     <t>../New_But-OH/But_OH_550.log</t>
   </si>
   <si>
@@ -70,6 +67,138 @@
   </si>
   <si>
     <t>../New_But-OH/But_OH_500.log</t>
+  </si>
+  <si>
+    <t>But-OH</t>
+  </si>
+  <si>
+    <t>../New_OH-OH/OH-OH_525.log</t>
+  </si>
+  <si>
+    <t>Benz-OH</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_500.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_525.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_550.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_600.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_650.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_700.log</t>
+  </si>
+  <si>
+    <t>TMM-OH</t>
+  </si>
+  <si>
+    <t>TMA-OH</t>
+  </si>
+  <si>
+    <t>W-OH</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_500.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_525.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_550.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_600.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_650.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_700.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_500.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_525.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_550.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_600.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_650.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_700.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_500.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_525.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_550.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_600.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_650.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_700.log</t>
+  </si>
+  <si>
+    <t>../New_OH-OH/OH-OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_But-OH/But_OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_Benz-OH/Benz_OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_TMM-OH/TMM_OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_TMA-OH/TMA_OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_W-OH/W_OH_475.log</t>
+  </si>
+  <si>
+    <t>../New_But-OH/But_OH_525.log</t>
+  </si>
+  <si>
+    <t>MIm-OH</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_500.log</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_525.log</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_550.log</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_600.log</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_650.log</t>
+  </si>
+  <si>
+    <t>../New_MIm-OH/MIm_OH_700.log</t>
   </si>
 </sst>
 </file>
@@ -149,7 +278,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,9 +287,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -477,19 +603,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="8" width="9.109375"/>
-    <col min="9" max="1025" width="8.5546875"/>
+    <col min="1" max="4" width="9.109375"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="13" max="1028" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,77 +633,267 @@
         <v>2</v>
       </c>
       <c r="E1" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5.25</v>
+      </c>
+      <c r="H1" s="1">
         <v>5.5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="I1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="J1" s="1">
         <v>6.5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="K1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-305.11859638999999</v>
+        <v>-305.10889825999999</v>
       </c>
       <c r="C2">
-        <v>-305.11859638999999</v>
+        <v>-305.10889825999999</v>
       </c>
       <c r="D2">
         <v>200</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:9" ht="72">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>-158.45799844000001</v>
       </c>
       <c r="C3">
-        <v>-305.11859638999999</v>
+        <v>-305.10889825999999</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>-232.24858806</v>
+      </c>
+      <c r="C4">
+        <v>-305.10889825999999</v>
+      </c>
+      <c r="D4">
+        <v>180</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>-158.45877153000001</v>
+      </c>
+      <c r="C5">
+        <v>-305.10889825999999</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>-174.85101956</v>
+      </c>
+      <c r="C6">
+        <v>-305.10889825999999</v>
+      </c>
+      <c r="D6">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>-305.68926621000003</v>
+      </c>
+      <c r="C7">
+        <v>-305.10889825999999</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>-265.923572127</v>
+      </c>
+      <c r="C8">
+        <v>-305.10889825999999</v>
+      </c>
+      <c r="D8">
+        <v>110</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
